--- a/data/trans_orig/P42C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Edad-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>62703</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49470</v>
+        <v>50319</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76473</v>
+        <v>76440</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2695096358531996</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2126286564664253</v>
+        <v>0.216280131095684</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3286943031222853</v>
+        <v>0.3285516966045788</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>169954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156184</v>
+        <v>156217</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>183187</v>
+        <v>182338</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7304903641468005</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6713056968777146</v>
+        <v>0.6714483033954212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7873713435335746</v>
+        <v>0.783719868904316</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>145438</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125277</v>
+        <v>124446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>166440</v>
+        <v>168908</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2974382318967286</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.256206372322524</v>
+        <v>0.2545057060064448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3403886926618214</v>
+        <v>0.3454361417216771</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>343532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>322530</v>
+        <v>320062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363693</v>
+        <v>364524</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7025617681032714</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6596113073381786</v>
+        <v>0.6545638582783223</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7437936276774759</v>
+        <v>0.7454942939935552</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>176081</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>153361</v>
+        <v>152551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>200108</v>
+        <v>199427</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2845232990296376</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2478105552617209</v>
+        <v>0.2465029708063415</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3233491280961975</v>
+        <v>0.3222483242698529</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>442781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>418754</v>
+        <v>419435</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>465501</v>
+        <v>466311</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7154767009703624</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6766508719038024</v>
+        <v>0.6777516757301468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7521894447382789</v>
+        <v>0.7534970291936584</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>143356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121716</v>
+        <v>120038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165653</v>
+        <v>165746</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2667260490400395</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2264631006769306</v>
+        <v>0.223340351094255</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3082113395604697</v>
+        <v>0.3083844320265886</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>394110</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>371813</v>
+        <v>371720</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>415750</v>
+        <v>417428</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7332739509599605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6917886604395305</v>
+        <v>0.6916155679734115</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7735368993230696</v>
+        <v>0.7766596489057451</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>64547</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49770</v>
+        <v>49332</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82636</v>
+        <v>81535</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1652314906069749</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1274047198951082</v>
+        <v>0.1262829380345037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2115381234206944</v>
+        <v>0.2087202547604042</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>326097</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>308008</v>
+        <v>309109</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>340874</v>
+        <v>341312</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.834768509393025</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7884618765793061</v>
+        <v>0.7912797452395963</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8725952801048918</v>
+        <v>0.8737170619654965</v>
       </c>
     </row>
     <row r="18">
@@ -1078,19 +1078,19 @@
         <v>38812</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28682</v>
+        <v>27239</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52391</v>
+        <v>52436</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1507056989614845</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.111369748092577</v>
+        <v>0.105768645613791</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2034325664684613</v>
+        <v>0.2036076131300348</v>
       </c>
     </row>
     <row r="20">
@@ -1107,19 +1107,19 @@
         <v>218724</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>205145</v>
+        <v>205100</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>228854</v>
+        <v>230297</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8492943010385156</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7965674335315388</v>
+        <v>0.7963923868699652</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8886302519074231</v>
+        <v>0.8942313543862092</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>24738</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16665</v>
+        <v>16012</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36941</v>
+        <v>37634</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1156528779457689</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07791082851136413</v>
+        <v>0.07485793473441665</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1727017055625099</v>
+        <v>0.1759432243132838</v>
       </c>
     </row>
     <row r="23">
@@ -1198,19 +1198,19 @@
         <v>189162</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>176959</v>
+        <v>176266</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>197235</v>
+        <v>197888</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.884347122054231</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8272982944374901</v>
+        <v>0.8240567756867154</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9220891714886359</v>
+        <v>0.9251420652655825</v>
       </c>
     </row>
     <row r="24">
@@ -1260,19 +1260,19 @@
         <v>655675</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>610102</v>
+        <v>607857</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>712838</v>
+        <v>701116</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2392945599751317</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2226620354067518</v>
+        <v>0.2218427587870181</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2601567587401805</v>
+        <v>0.2558787532653669</v>
       </c>
     </row>
     <row r="26">
@@ -1289,19 +1289,19 @@
         <v>2084359</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2027196</v>
+        <v>2038918</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2129932</v>
+        <v>2132177</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7607054400248683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7398432412598196</v>
+        <v>0.7441212467346331</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7773379645932481</v>
+        <v>0.7781572412129818</v>
       </c>
     </row>
     <row r="27">
@@ -1472,19 +1472,19 @@
         <v>45199</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33551</v>
+        <v>34417</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56670</v>
+        <v>57687</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2093975993196366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1554355382978065</v>
+        <v>0.159445093263201</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2625414098894148</v>
+        <v>0.2672503490528861</v>
       </c>
     </row>
     <row r="5">
@@ -1501,19 +1501,19 @@
         <v>170654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>159183</v>
+        <v>158166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>182302</v>
+        <v>181436</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7906024006803634</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7374585901105852</v>
+        <v>0.732749650947114</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8445644617021936</v>
+        <v>0.840554906736799</v>
       </c>
     </row>
     <row r="6">
@@ -1563,19 +1563,19 @@
         <v>98683</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81717</v>
+        <v>81837</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116283</v>
+        <v>115221</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2131240832499066</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1764835404104062</v>
+        <v>0.1767420686420656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2511354770068127</v>
+        <v>0.2488417532430781</v>
       </c>
     </row>
     <row r="8">
@@ -1592,19 +1592,19 @@
         <v>364346</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>346746</v>
+        <v>347808</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>381312</v>
+        <v>381192</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7868759167500934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7488645229931871</v>
+        <v>0.751158246756922</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8235164595895937</v>
+        <v>0.8232579313579345</v>
       </c>
     </row>
     <row r="9">
@@ -1654,19 +1654,19 @@
         <v>119213</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100166</v>
+        <v>101472</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>139049</v>
+        <v>138949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2044121105606827</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1717530000637127</v>
+        <v>0.1739920440598422</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2384238264900384</v>
+        <v>0.238253193447544</v>
       </c>
     </row>
     <row r="11">
@@ -1683,19 +1683,19 @@
         <v>463986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>444150</v>
+        <v>444250</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>483033</v>
+        <v>481727</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7955878894393172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7615761735099615</v>
+        <v>0.761746806552456</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8282469999362873</v>
+        <v>0.8260079559401579</v>
       </c>
     </row>
     <row r="12">
@@ -1745,19 +1745,19 @@
         <v>81492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67372</v>
+        <v>64941</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100891</v>
+        <v>100090</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1416580070131137</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.117112542406821</v>
+        <v>0.1128867426759636</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1753797528925023</v>
+        <v>0.1739868638796452</v>
       </c>
     </row>
     <row r="14">
@@ -1774,19 +1774,19 @@
         <v>493781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>474382</v>
+        <v>475183</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>507901</v>
+        <v>510332</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8583419929868863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8246202471074977</v>
+        <v>0.8260131361203545</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.882887457593179</v>
+        <v>0.8871132573240365</v>
       </c>
     </row>
     <row r="15">
@@ -1836,19 +1836,19 @@
         <v>53981</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41530</v>
+        <v>40994</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70818</v>
+        <v>71106</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.124843101737533</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09604826892321072</v>
+        <v>0.09480745061339432</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1637837164284139</v>
+        <v>0.1644499030822373</v>
       </c>
     </row>
     <row r="17">
@@ -1865,19 +1865,19 @@
         <v>378407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>361570</v>
+        <v>361282</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>390858</v>
+        <v>391394</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8751568982624669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8362162835715861</v>
+        <v>0.8355500969177626</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9039517310767892</v>
+        <v>0.9051925493866055</v>
       </c>
     </row>
     <row r="18">
@@ -1927,19 +1927,19 @@
         <v>26331</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17616</v>
+        <v>17373</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36748</v>
+        <v>38974</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0933619056652325</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06246203355679343</v>
+        <v>0.06160042508189831</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1302973106474007</v>
+        <v>0.1381909501164214</v>
       </c>
     </row>
     <row r="20">
@@ -1956,19 +1956,19 @@
         <v>255699</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245282</v>
+        <v>243056</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264414</v>
+        <v>264657</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9066380943347675</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8697026893525993</v>
+        <v>0.8618090498835788</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9375379664432066</v>
+        <v>0.9383995749181018</v>
       </c>
     </row>
     <row r="21">
@@ -2018,19 +2018,19 @@
         <v>4633</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1330</v>
+        <v>1361</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13061</v>
+        <v>12431</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02059247077641529</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005910872914746773</v>
+        <v>0.006048596542727833</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0580515703304975</v>
+        <v>0.05525147009121131</v>
       </c>
     </row>
     <row r="23">
@@ -2047,19 +2047,19 @@
         <v>220349</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>211921</v>
+        <v>212551</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>223652</v>
+        <v>223621</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9794075292235848</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9419484296695042</v>
+        <v>0.9447485299087887</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9940891270852532</v>
+        <v>0.9939514034572722</v>
       </c>
     </row>
     <row r="24">
@@ -2109,19 +2109,19 @@
         <v>429531</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>392612</v>
+        <v>392956</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>471741</v>
+        <v>470929</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1546882204377477</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1413925669085788</v>
+        <v>0.1415163896537507</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1698894852450107</v>
+        <v>0.1695969681771633</v>
       </c>
     </row>
     <row r="26">
@@ -2138,19 +2138,19 @@
         <v>2347223</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2305013</v>
+        <v>2305825</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2384142</v>
+        <v>2383798</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8453117795622522</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8301105147549896</v>
+        <v>0.8304030318228367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8586074330914214</v>
+        <v>0.8584836103462492</v>
       </c>
     </row>
     <row r="27">
@@ -2321,19 +2321,19 @@
         <v>37654</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25312</v>
+        <v>25377</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51984</v>
+        <v>53622</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3507904219742493</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2358091403898619</v>
+        <v>0.2364129528538402</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4842867930291287</v>
+        <v>0.4995461163708252</v>
       </c>
     </row>
     <row r="5">
@@ -2350,19 +2350,19 @@
         <v>69687</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55357</v>
+        <v>53719</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82029</v>
+        <v>81964</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6492095780257506</v>
+        <v>0.6492095780257507</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5157132069708713</v>
+        <v>0.500453883629175</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7641908596101382</v>
+        <v>0.7635870471461599</v>
       </c>
     </row>
     <row r="6">
@@ -2412,19 +2412,19 @@
         <v>71205</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56428</v>
+        <v>56908</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87146</v>
+        <v>86957</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2935594853014597</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2326364639197375</v>
+        <v>0.2346168814265193</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3592770676280435</v>
+        <v>0.3585000256793122</v>
       </c>
     </row>
     <row r="8">
@@ -2441,19 +2441,19 @@
         <v>171354</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>155413</v>
+        <v>155602</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>186131</v>
+        <v>185651</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7064405146985403</v>
+        <v>0.7064405146985404</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6407229323719565</v>
+        <v>0.6414999743206879</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7673635360802625</v>
+        <v>0.7653831185734807</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>87345</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72767</v>
+        <v>74863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101341</v>
+        <v>102123</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2524044789188728</v>
+        <v>0.2524044789188729</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2102786967692243</v>
+        <v>0.2163360743179985</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2928493217756747</v>
+        <v>0.2951103628969574</v>
       </c>
     </row>
     <row r="11">
@@ -2532,19 +2532,19 @@
         <v>258706</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>244710</v>
+        <v>243928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>273284</v>
+        <v>271188</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.747595521081127</v>
+        <v>0.7475955210811273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7071506782243254</v>
+        <v>0.7048896371030424</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7897213032307758</v>
+        <v>0.7836639256820012</v>
       </c>
     </row>
     <row r="12">
@@ -2594,19 +2594,19 @@
         <v>148766</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133644</v>
+        <v>133021</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165501</v>
+        <v>165291</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3298261773595246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2963001847785977</v>
+        <v>0.2949190895051285</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3669290689579409</v>
+        <v>0.3664638041642236</v>
       </c>
     </row>
     <row r="14">
@@ -2623,19 +2623,19 @@
         <v>302277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>285542</v>
+        <v>285752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>317399</v>
+        <v>318022</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6701738226404755</v>
+        <v>0.6701738226404753</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.633070931042059</v>
+        <v>0.633536195835776</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7036998152214022</v>
+        <v>0.7050809104948711</v>
       </c>
     </row>
     <row r="15">
@@ -2685,19 +2685,19 @@
         <v>84930</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72025</v>
+        <v>71512</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97656</v>
+        <v>98435</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2139844933299566</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1814703712488266</v>
+        <v>0.180177854738059</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2460462963215211</v>
+        <v>0.2480107368547205</v>
       </c>
     </row>
     <row r="17">
@@ -2714,19 +2714,19 @@
         <v>311969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>299243</v>
+        <v>298464</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>324874</v>
+        <v>325387</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7860155066700434</v>
+        <v>0.7860155066700435</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7539537036784789</v>
+        <v>0.7519892631452796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8185296287511734</v>
+        <v>0.819822145261941</v>
       </c>
     </row>
     <row r="18">
@@ -2776,19 +2776,19 @@
         <v>50613</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41205</v>
+        <v>41007</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59461</v>
+        <v>60213</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1711441995144816</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1393309994115177</v>
+        <v>0.13866225001003</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2010632982215743</v>
+        <v>0.2036040118687148</v>
       </c>
     </row>
     <row r="20">
@@ -2805,19 +2805,19 @@
         <v>245122</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>236274</v>
+        <v>235522</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>254530</v>
+        <v>254728</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8288558004855184</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7989367017784256</v>
+        <v>0.796395988131285</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8606690005884822</v>
+        <v>0.8613377499899698</v>
       </c>
     </row>
     <row r="21">
@@ -2867,19 +2867,19 @@
         <v>32311</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25076</v>
+        <v>24578</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41153</v>
+        <v>40283</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1193968282696205</v>
+        <v>0.1193968282696204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09266122365439855</v>
+        <v>0.09082433477305256</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1520714378344502</v>
+        <v>0.1488557262104352</v>
       </c>
     </row>
     <row r="23">
@@ -2896,19 +2896,19 @@
         <v>238304</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>229462</v>
+        <v>230332</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>245539</v>
+        <v>246037</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8806031717303797</v>
+        <v>0.8806031717303795</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8479285621655496</v>
+        <v>0.8511442737895646</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9073387763456012</v>
+        <v>0.9091756652269473</v>
       </c>
     </row>
     <row r="24">
@@ -2958,19 +2958,19 @@
         <v>512824</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>479629</v>
+        <v>476275</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>547954</v>
+        <v>545791</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2430167787613406</v>
+        <v>0.2430167787613405</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2272862255232194</v>
+        <v>0.2256968752113514</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2596637599534641</v>
+        <v>0.2586387981975807</v>
       </c>
     </row>
     <row r="26">
@@ -2987,19 +2987,19 @@
         <v>1597419</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1562289</v>
+        <v>1564452</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1630614</v>
+        <v>1633968</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7569832212386595</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7403362400465359</v>
+        <v>0.7413612018024193</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7727137744767807</v>
+        <v>0.7743031247886487</v>
       </c>
     </row>
     <row r="27">
